--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_comparaciones_AV-MCPS_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_comparaciones_AV-MCPS_General.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>N_Calib_1</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Sí</t>
   </si>
 </sst>
 </file>
@@ -441,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-0.2999852178853765</v>
+        <v>-0.2875967909975362</v>
       </c>
       <c r="D2">
-        <v>0.7642008049569684</v>
+        <v>0.775401138347239</v>
       </c>
       <c r="E2">
         <v>1.517193632903622</v>
@@ -467,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-0.9692873173724013</v>
+        <v>-0.8417509013982452</v>
       </c>
       <c r="D3">
-        <v>0.3324483761565786</v>
+        <v>0.4058092828223334</v>
       </c>
       <c r="E3">
         <v>1.517193632903622</v>
@@ -493,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>0.7469939950915055</v>
+        <v>0.6888500773597039</v>
       </c>
       <c r="D4">
-        <v>0.4551020381598394</v>
+        <v>0.4955917303550397</v>
       </c>
       <c r="E4">
         <v>1.517193632903622</v>
@@ -519,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-1.590868194173627</v>
+        <v>-1.325723994832559</v>
       </c>
       <c r="D5">
-        <v>0.1117019708850726</v>
+        <v>0.1937699508062964</v>
       </c>
       <c r="E5">
         <v>1.517193632903622</v>
@@ -545,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-0.5469115984105837</v>
+        <v>-0.6662398735435877</v>
       </c>
       <c r="D6">
-        <v>0.5844636847816036</v>
+        <v>0.5097534630994822</v>
       </c>
       <c r="E6">
         <v>1.58131340749869</v>
@@ -571,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>0.9532093913023444</v>
+        <v>0.9041291670781453</v>
       </c>
       <c r="D7">
-        <v>0.340529710309863</v>
+        <v>0.3722888517135843</v>
       </c>
       <c r="E7">
         <v>1.58131340749869</v>
@@ -597,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-1.131286004774947</v>
+        <v>-1.238669846537381</v>
       </c>
       <c r="D8">
-        <v>0.2579885693980588</v>
+        <v>0.2239516712439955</v>
       </c>
       <c r="E8">
         <v>1.58131340749869</v>
@@ -623,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>1.388579294144957</v>
+        <v>1.218700416007761</v>
       </c>
       <c r="D9">
-        <v>0.165022091507653</v>
+        <v>0.2313465738356522</v>
       </c>
       <c r="E9">
         <v>1.739566100584795</v>
@@ -649,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-0.5572199531836247</v>
+        <v>-0.6483194058722322</v>
       </c>
       <c r="D10">
-        <v>0.5774019077574906</v>
+        <v>0.5211331781114343</v>
       </c>
       <c r="E10">
         <v>1.739566100584795</v>
@@ -675,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-2.132660157767261</v>
+        <v>-1.552746803518383</v>
       </c>
       <c r="D11">
-        <v>0.03300081454003267</v>
+        <v>0.1297435499985056</v>
       </c>
       <c r="E11">
         <v>1.390084256731658</v>
@@ -687,7 +684,7 @@
         <v>1.913086013992481</v>
       </c>
       <c r="G11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H11">
         <v>100</v>
